--- a/PCB/BOM/UH_007.xlsx
+++ b/PCB/BOM/UH_007.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmt87\Documents\miroculus\Miriam\PCB\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STRAWLAB\Open_RT_LAMP\Miriam-anna_autofill\PCB\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8CDF04-63CD-4D11-891D-5877DB5A908E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6876" yWindow="3084" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6870" yWindow="3090" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="LED_002" sheetId="1" r:id="rId1"/>
@@ -25,15 +24,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="MV255-v7.1" type="6" refreshedVersion="2" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="MV255-v7.1" type="6" refreshedVersion="2" background="1" saveData="1">
     <textPr sourceFile="P:\EAGLE 5.11 PROJEKTY\PROJEKTY\!   6\mv255-5.2\MV255-v7.1.csv" thousands=" " tab="0" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="MV255-v7.11" type="6" refreshedVersion="2" background="1" saveData="1">
+  <connection id="2" name="MV255-v7.11" type="6" refreshedVersion="2" background="1" saveData="1">
     <textPr sourceFile="P:\EAGLE 5.11 PROJEKTY\PROJEKTY\!   6\mv255-5.2\MV255-v7.1.csv" thousands=" " tab="0" comma="1">
       <textFields>
         <textField/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>PCB:</t>
   </si>
@@ -85,17 +84,23 @@
     <t>WE-FPC 0.5mm SMT ZIF Horizontal Bottom Contact, 6 Pins=&gt;Code : Con_FPC_ZIF_0.50_68710614522</t>
   </si>
   <si>
-    <t>https://www.digikey.fi/product-detail/en/wurth-electronics-inc/68710614522/732-2010-1-ND/2060634</t>
-  </si>
-  <si>
     <t>UH_007</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/594-NTCS0603E3103FLT</t>
+  </si>
+  <si>
+    <t>NTCS0603E3103FLT</t>
+  </si>
+  <si>
+    <t>https://de.farnell.com/wurth-elektronik/68710614522/ffc-05mm-90-unten-ziif-6kont/dp/1641913</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -140,6 +145,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -219,7 +230,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,13 +250,14 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="差" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="好" xfId="1"/>
+    <cellStyle name="差" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -261,7 +273,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="MV255-v7.1_1" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MV255-v7.1_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="6">
     <queryTableFields count="5">
       <queryTableField id="1"/>
@@ -602,22 +614,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
@@ -625,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="2:8" s="1" customFormat="1">
@@ -664,7 +676,7 @@
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -677,14 +689,17 @@
       <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>8</v>
+      <c r="E4" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>9</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -839,8 +854,12 @@
       <c r="G23" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:G23" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B2:G23"/>
+  <hyperlinks>
+    <hyperlink ref="H4" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>